--- a/00.Main/CourseMain.xlsx
+++ b/00.Main/CourseMain.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <r>
       <t>Java基</t>
@@ -406,14 +406,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>字符串和数组</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>运算符</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <r>
       <t>分支</t>
     </r>
@@ -2009,6 +2001,31 @@
         <scheme val="minor"/>
       </rPr>
       <t>(前后端分离)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>运算符</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>组</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -2386,15 +2403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2431,12 +2439,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2448,6 +2450,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2750,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2764,17 +2781,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2782,7 +2799,7 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2793,44 +2810,44 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="21">
-        <f t="shared" ref="A3:A74" si="0">ROW()-1</f>
+      <c r="A3" s="18">
+        <f t="shared" ref="A3:A75" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4"/>
       <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
+      <c r="A4" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="4"/>
       <c r="D4" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+      <c r="A5" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="5"/>
       <c r="D5" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
+      <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2839,871 +2856,884 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="4"/>
       <c r="D7" s="10" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="16"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="5"/>
       <c r="D8" s="10" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="5"/>
       <c r="D10" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="21">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="4"/>
       <c r="D12" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="4"/>
       <c r="D13" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="13"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="4"/>
       <c r="D16" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21">
+      <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="4"/>
       <c r="D17" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21">
+      <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="5"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="21">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="10" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="21">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="21">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="21">
+      <c r="A23" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="4"/>
       <c r="D23" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="21">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="9" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="18">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="29"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="18">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="21">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="21">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="9" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="18">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="21">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="21">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="9" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="21">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="9" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="18">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="21">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="9" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="21">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="9" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="18">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="21">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="21">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="21">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="21">
+      <c r="A35" s="18">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="4"/>
       <c r="D35" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="18">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="18">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="21">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="9" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="18">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="29"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" s="18">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="21">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="9" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A41" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="13"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="21">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D38" s="13"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="21">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="9" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" s="18">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="13"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="21">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="9" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A43" s="18">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="21">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="21">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="21">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="21">
+      <c r="A44" s="18">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="4"/>
       <c r="D44" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="21">
+      <c r="A45" s="18">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="5"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="13"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="18">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="21">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="21">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="21">
+      <c r="A48" s="18">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B48" s="16"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="4"/>
       <c r="D48" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="21">
+      <c r="A49" s="18">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B49" s="16"/>
+      <c r="B49" s="13"/>
       <c r="C49" s="4"/>
       <c r="D49" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="18">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="18">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="21">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="3" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="18">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" s="29"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="18">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="18">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="18">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="24">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="24">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="25"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="24">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="25"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="24">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="18">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="18">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="18">
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="B64" s="13"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="18">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="13"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="24">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="25"/>
+      <c r="C66" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="24">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="25"/>
+      <c r="C67" s="20"/>
+      <c r="D67" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="24">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="24">
+        <f t="shared" si="0"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="21">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="9" t="s">
+      <c r="B69" s="25"/>
+      <c r="C69" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D69" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="24">
+        <f t="shared" si="0"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="21">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D52" s="13"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="21">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="9" t="s">
+      <c r="B70" s="25"/>
+      <c r="C70" s="20"/>
+      <c r="D70" s="19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="24">
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="21">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="9" t="s">
+      <c r="B71" s="25"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="24">
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="21">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="9" t="s">
+      <c r="B72" s="25"/>
+      <c r="C72" s="20"/>
+      <c r="D72" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="18">
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="29">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="B56" s="30"/>
-      <c r="C56" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="22" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="29">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="29">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="29">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="B59" s="30"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="22" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="21">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="21">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="9" t="s">
+      <c r="B73" s="13"/>
+      <c r="C73" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="18">
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="21">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" s="10" t="s">
+      <c r="B74" s="13"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="18">
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="21">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="10" t="s">
+      <c r="B75" s="13"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="18">
+        <f t="shared" ref="A76:A79" si="1">ROW()-1</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="21">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="29">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="29">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B66" s="30"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="29">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="B67" s="30"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="29">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="B68" s="30"/>
-      <c r="C68" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="29">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="B69" s="30"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="29">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="B70" s="30"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="31" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="29">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="B71" s="30"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="21">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="21">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="9" t="s">
+      <c r="B76" s="13"/>
+      <c r="C76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="21">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="21">
-        <f t="shared" ref="A75:A78" si="1">ROW()-1</f>
-        <v>74</v>
-      </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="21">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="21">
+      <c r="A77" s="18">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B77" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D77" s="14"/>
-    </row>
-    <row r="78" spans="1:4" s="31" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="29">
+      <c r="B77" s="14"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="18">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B78" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C78" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="D78" s="28"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B79" t="s">
-        <v>97</v>
+      <c r="B78" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D78" s="30"/>
+    </row>
+    <row r="79" spans="1:4" s="26" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="24">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D79" s="32"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C53:D53"/>
     <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
